--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1275097979829652</v>
+        <v>0.1177974704067688</v>
       </c>
       <c r="C2">
-        <v>1.514122279856028</v>
+        <v>1.452459299700094</v>
       </c>
       <c r="D2">
-        <v>9.324398268036724</v>
+        <v>8.919389290004966</v>
       </c>
       <c r="E2">
-        <v>3.05358776982695</v>
+        <v>2.986534662448264</v>
       </c>
       <c r="F2">
-        <v>3.122720650086514</v>
+        <v>3.051279910712037</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.029890368269258</v>
+        <v>0.02651855621502405</v>
       </c>
       <c r="C3">
-        <v>1.46966240847316</v>
+        <v>1.404872730675466</v>
       </c>
       <c r="D3">
-        <v>8.914287279745698</v>
+        <v>8.509181565190792</v>
       </c>
       <c r="E3">
-        <v>2.985680371330075</v>
+        <v>2.917050147870412</v>
       </c>
       <c r="F3">
-        <v>3.059258658222928</v>
+        <v>2.98557263622811</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4518501121711197</v>
+        <v>-0.4315838055284564</v>
       </c>
       <c r="C4">
-        <v>0.9211732945268647</v>
+        <v>0.8785582649148802</v>
       </c>
       <c r="D4">
-        <v>3.928571433859458</v>
+        <v>3.741529435360165</v>
       </c>
       <c r="E4">
-        <v>1.982062419264201</v>
+        <v>1.934303346261947</v>
       </c>
       <c r="F4">
-        <v>1.980006089833911</v>
+        <v>1.932104577106019</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02887321458375646</v>
+        <v>-0.02783490465184608</v>
       </c>
       <c r="C5">
-        <v>0.6406565445890792</v>
+        <v>0.6090290681569026</v>
       </c>
       <c r="D5">
-        <v>0.9487813136001403</v>
+        <v>0.9013455341055104</v>
       </c>
       <c r="E5">
-        <v>0.9740540609227705</v>
+        <v>0.9493921919341397</v>
       </c>
       <c r="F5">
-        <v>1.000305658023116</v>
+        <v>0.9736371053067127</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01274653667201224</v>
+        <v>-0.01094518282552908</v>
       </c>
       <c r="C6">
-        <v>0.6862274353315703</v>
+        <v>0.6512406853883913</v>
       </c>
       <c r="D6">
-        <v>0.9980463954621034</v>
+        <v>0.945541919671934</v>
       </c>
       <c r="E6">
-        <v>0.9990227201931412</v>
+        <v>0.9723897982146532</v>
       </c>
       <c r="F6">
-        <v>1.027902220766659</v>
+        <v>0.9989722588254877</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1249833021668538</v>
+        <v>-0.1131319738049607</v>
       </c>
       <c r="C7">
-        <v>0.5228445079367579</v>
+        <v>0.4987054024040059</v>
       </c>
       <c r="D7">
-        <v>0.5102717666494121</v>
+        <v>0.4823568942290646</v>
       </c>
       <c r="E7">
-        <v>0.7143330922261771</v>
+        <v>0.6945191820454383</v>
       </c>
       <c r="F7">
-        <v>0.7249597400067718</v>
+        <v>0.7051092912023117</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0390809901440984</v>
+        <v>-0.02891905992389743</v>
       </c>
       <c r="C8">
-        <v>0.4768323812870599</v>
+        <v>0.4566464661289574</v>
       </c>
       <c r="D8">
-        <v>0.4090940898259321</v>
+        <v>0.38608079962584</v>
       </c>
       <c r="E8">
-        <v>0.6396046355569447</v>
+        <v>0.6213540050774921</v>
       </c>
       <c r="F8">
-        <v>0.6593465581702652</v>
+        <v>0.6397829851394089</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04629949658559348</v>
+        <v>0.06681065338993029</v>
       </c>
       <c r="C9">
-        <v>0.4102897657502837</v>
+        <v>0.4080515307318274</v>
       </c>
       <c r="D9">
-        <v>0.3245139449153468</v>
+        <v>0.312996434393734</v>
       </c>
       <c r="E9">
-        <v>0.5696612545323289</v>
+        <v>0.5594608425919851</v>
       </c>
       <c r="F9">
-        <v>0.587704646604605</v>
+        <v>0.5736737944045387</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007747492349097503</v>
+        <v>0.0231535205448071</v>
       </c>
       <c r="C10">
-        <v>0.3348330590701836</v>
+        <v>0.3284333828178208</v>
       </c>
       <c r="D10">
-        <v>0.2617178415847722</v>
+        <v>0.2480728887976249</v>
       </c>
       <c r="E10">
-        <v>0.5115836603965888</v>
+        <v>0.4980691606570566</v>
       </c>
       <c r="F10">
-        <v>0.5308345715988552</v>
+        <v>0.5149932072547927</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.008384597810582966</v>
+        <v>0.02456212780780078</v>
       </c>
       <c r="C11">
-        <v>0.3303098490994814</v>
+        <v>0.3234927182903493</v>
       </c>
       <c r="D11">
-        <v>0.2394030808541738</v>
+        <v>0.2262431411680219</v>
       </c>
       <c r="E11">
-        <v>0.4892883412203625</v>
+        <v>0.4756502298622612</v>
       </c>
       <c r="F11">
-        <v>0.509192672428495</v>
+        <v>0.4929470093722863</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1177974704067688</v>
+        <v>0.02651855621502405</v>
       </c>
       <c r="C2">
-        <v>1.452459299700094</v>
+        <v>1.404872730675466</v>
       </c>
       <c r="D2">
-        <v>8.919389290004966</v>
+        <v>8.509181565190792</v>
       </c>
       <c r="E2">
-        <v>2.986534662448264</v>
+        <v>2.917050147870412</v>
       </c>
       <c r="F2">
-        <v>3.051279910712037</v>
+        <v>2.98557263622811</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02651855621502405</v>
+        <v>-0.4315838055284564</v>
       </c>
       <c r="C3">
-        <v>1.404872730675466</v>
+        <v>0.8785582649148802</v>
       </c>
       <c r="D3">
-        <v>8.509181565190792</v>
+        <v>3.741529435360165</v>
       </c>
       <c r="E3">
-        <v>2.917050147870412</v>
+        <v>1.934303346261947</v>
       </c>
       <c r="F3">
-        <v>2.98557263622811</v>
+        <v>1.932104577106019</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4315838055284564</v>
+        <v>-0.02783490465184608</v>
       </c>
       <c r="C4">
-        <v>0.8785582649148802</v>
+        <v>0.6090290681569026</v>
       </c>
       <c r="D4">
-        <v>3.741529435360165</v>
+        <v>0.9013455341055104</v>
       </c>
       <c r="E4">
-        <v>1.934303346261947</v>
+        <v>0.9493921919341397</v>
       </c>
       <c r="F4">
-        <v>1.932104577106019</v>
+        <v>0.9736371053067127</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02783490465184608</v>
+        <v>-0.01094518282552908</v>
       </c>
       <c r="C5">
-        <v>0.6090290681569026</v>
+        <v>0.6512406853883913</v>
       </c>
       <c r="D5">
-        <v>0.9013455341055104</v>
+        <v>0.945541919671934</v>
       </c>
       <c r="E5">
-        <v>0.9493921919341397</v>
+        <v>0.9723897982146532</v>
       </c>
       <c r="F5">
-        <v>0.9736371053067127</v>
+        <v>0.9989722588254877</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01094518282552908</v>
+        <v>-0.1131319738049607</v>
       </c>
       <c r="C6">
-        <v>0.6512406853883913</v>
+        <v>0.4987054024040059</v>
       </c>
       <c r="D6">
-        <v>0.945541919671934</v>
+        <v>0.4823568942290646</v>
       </c>
       <c r="E6">
-        <v>0.9723897982146532</v>
+        <v>0.6945191820454383</v>
       </c>
       <c r="F6">
-        <v>0.9989722588254877</v>
+        <v>0.7051092912023117</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1131319738049607</v>
+        <v>-0.02891905992389743</v>
       </c>
       <c r="C7">
-        <v>0.4987054024040059</v>
+        <v>0.4566464661289574</v>
       </c>
       <c r="D7">
-        <v>0.4823568942290646</v>
+        <v>0.38608079962584</v>
       </c>
       <c r="E7">
-        <v>0.6945191820454383</v>
+        <v>0.6213540050774921</v>
       </c>
       <c r="F7">
-        <v>0.7051092912023117</v>
+        <v>0.6397829851394089</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02891905992389743</v>
+        <v>0.06681065338993029</v>
       </c>
       <c r="C8">
-        <v>0.4566464661289574</v>
+        <v>0.4080515307318274</v>
       </c>
       <c r="D8">
-        <v>0.38608079962584</v>
+        <v>0.312996434393734</v>
       </c>
       <c r="E8">
-        <v>0.6213540050774921</v>
+        <v>0.5594608425919851</v>
       </c>
       <c r="F8">
-        <v>0.6397829851394089</v>
+        <v>0.5736737944045387</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06681065338993029</v>
+        <v>0.0231535205448071</v>
       </c>
       <c r="C9">
-        <v>0.4080515307318274</v>
+        <v>0.3284333828178208</v>
       </c>
       <c r="D9">
-        <v>0.312996434393734</v>
+        <v>0.2480728887976249</v>
       </c>
       <c r="E9">
-        <v>0.5594608425919851</v>
+        <v>0.4980691606570566</v>
       </c>
       <c r="F9">
-        <v>0.5736737944045387</v>
+        <v>0.5149932072547927</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0231535205448071</v>
+        <v>0.02456212780780078</v>
       </c>
       <c r="C10">
-        <v>0.3284333828178208</v>
+        <v>0.3234927182903493</v>
       </c>
       <c r="D10">
-        <v>0.2480728887976249</v>
+        <v>0.2262431411680219</v>
       </c>
       <c r="E10">
-        <v>0.4980691606570566</v>
+        <v>0.4756502298622612</v>
       </c>
       <c r="F10">
-        <v>0.5149932072547927</v>
+        <v>0.4929470093722863</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02456212780780078</v>
+        <v>0.01913304824231281</v>
       </c>
       <c r="C11">
-        <v>0.3234927182903493</v>
+        <v>0.3424040870494332</v>
       </c>
       <c r="D11">
-        <v>0.2262431411680219</v>
+        <v>0.2158972216534285</v>
       </c>
       <c r="E11">
-        <v>0.4756502298622612</v>
+        <v>0.4646474164927946</v>
       </c>
       <c r="F11">
-        <v>0.4929470093722863</v>
+        <v>0.4832101790403958</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02651855621502405</v>
+        <v>0.1177974704067688</v>
       </c>
       <c r="C2">
-        <v>1.404872730675466</v>
+        <v>1.452459299700094</v>
       </c>
       <c r="D2">
-        <v>8.509181565190792</v>
+        <v>8.919389290004966</v>
       </c>
       <c r="E2">
-        <v>2.917050147870412</v>
+        <v>2.986534662448264</v>
       </c>
       <c r="F2">
-        <v>2.98557263622811</v>
+        <v>3.051279910712037</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.4315838055284564</v>
+        <v>0.02651855621502405</v>
       </c>
       <c r="C3">
-        <v>0.8785582649148802</v>
+        <v>1.404872730675466</v>
       </c>
       <c r="D3">
-        <v>3.741529435360165</v>
+        <v>8.509181565190792</v>
       </c>
       <c r="E3">
-        <v>1.934303346261947</v>
+        <v>2.917050147870412</v>
       </c>
       <c r="F3">
-        <v>1.932104577106019</v>
+        <v>2.98557263622811</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02783490465184608</v>
+        <v>-0.4315838055284564</v>
       </c>
       <c r="C4">
-        <v>0.6090290681569026</v>
+        <v>0.8785582649148802</v>
       </c>
       <c r="D4">
-        <v>0.9013455341055104</v>
+        <v>3.741529435360165</v>
       </c>
       <c r="E4">
-        <v>0.9493921919341397</v>
+        <v>1.934303346261947</v>
       </c>
       <c r="F4">
-        <v>0.9736371053067127</v>
+        <v>1.932104577106019</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.01094518282552908</v>
+        <v>-0.02783490465184608</v>
       </c>
       <c r="C5">
-        <v>0.6512406853883913</v>
+        <v>0.6090290681569026</v>
       </c>
       <c r="D5">
-        <v>0.945541919671934</v>
+        <v>0.9013455341055104</v>
       </c>
       <c r="E5">
-        <v>0.9723897982146532</v>
+        <v>0.9493921919341397</v>
       </c>
       <c r="F5">
-        <v>0.9989722588254877</v>
+        <v>0.9736371053067127</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1131319738049607</v>
+        <v>-0.01094518282552908</v>
       </c>
       <c r="C6">
-        <v>0.4987054024040059</v>
+        <v>0.6512406853883913</v>
       </c>
       <c r="D6">
-        <v>0.4823568942290646</v>
+        <v>0.945541919671934</v>
       </c>
       <c r="E6">
-        <v>0.6945191820454383</v>
+        <v>0.9723897982146532</v>
       </c>
       <c r="F6">
-        <v>0.7051092912023117</v>
+        <v>0.9989722588254877</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02891905992389743</v>
+        <v>-0.1131319738049607</v>
       </c>
       <c r="C7">
-        <v>0.4566464661289574</v>
+        <v>0.4987054024040059</v>
       </c>
       <c r="D7">
-        <v>0.38608079962584</v>
+        <v>0.4823568942290646</v>
       </c>
       <c r="E7">
-        <v>0.6213540050774921</v>
+        <v>0.6945191820454383</v>
       </c>
       <c r="F7">
-        <v>0.6397829851394089</v>
+        <v>0.7051092912023117</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06681065338993029</v>
+        <v>-0.02891905992389743</v>
       </c>
       <c r="C8">
-        <v>0.4080515307318274</v>
+        <v>0.4566464661289574</v>
       </c>
       <c r="D8">
-        <v>0.312996434393734</v>
+        <v>0.38608079962584</v>
       </c>
       <c r="E8">
-        <v>0.5594608425919851</v>
+        <v>0.6213540050774921</v>
       </c>
       <c r="F8">
-        <v>0.5736737944045387</v>
+        <v>0.6397829851394089</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0231535205448071</v>
+        <v>0.06681065338993029</v>
       </c>
       <c r="C9">
-        <v>0.3284333828178208</v>
+        <v>0.4080515307318274</v>
       </c>
       <c r="D9">
-        <v>0.2480728887976249</v>
+        <v>0.312996434393734</v>
       </c>
       <c r="E9">
-        <v>0.4980691606570566</v>
+        <v>0.5594608425919851</v>
       </c>
       <c r="F9">
-        <v>0.5149932072547927</v>
+        <v>0.5736737944045387</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02456212780780078</v>
+        <v>0.0231535205448071</v>
       </c>
       <c r="C10">
-        <v>0.3234927182903493</v>
+        <v>0.3284333828178208</v>
       </c>
       <c r="D10">
-        <v>0.2262431411680219</v>
+        <v>0.2480728887976249</v>
       </c>
       <c r="E10">
-        <v>0.4756502298622612</v>
+        <v>0.4980691606570566</v>
       </c>
       <c r="F10">
-        <v>0.4929470093722863</v>
+        <v>0.5149932072547927</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01913304824231281</v>
+        <v>0.02456212780780078</v>
       </c>
       <c r="C11">
-        <v>0.3424040870494332</v>
+        <v>0.3234927182903493</v>
       </c>
       <c r="D11">
-        <v>0.2158972216534285</v>
+        <v>0.2262431411680219</v>
       </c>
       <c r="E11">
-        <v>0.4646474164927946</v>
+        <v>0.4756502298622612</v>
       </c>
       <c r="F11">
-        <v>0.4832101790403958</v>
+        <v>0.4929470093722863</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
